--- a/teaching/traditional_assets/database/data/guernsey/guernsey_oil_gas_production_and_exploration.xlsx
+++ b/teaching/traditional_assets/database/data/guernsey/guernsey_oil_gas_production_and_exploration.xlsx
@@ -590,8 +590,29 @@
           <t>Oil/Gas (Production and Exploration)</t>
         </is>
       </c>
+      <c r="D2">
+        <v>0.0263</v>
+      </c>
+      <c r="E2">
+        <v>0.233</v>
+      </c>
+      <c r="G2">
+        <v>0.9631775700934579</v>
+      </c>
+      <c r="H2">
+        <v>0.9631775700934579</v>
+      </c>
+      <c r="I2">
+        <v>-0.4299065420560748</v>
+      </c>
+      <c r="J2">
+        <v>-0.4125846291924375</v>
+      </c>
       <c r="K2">
-        <v>-14.9</v>
+        <v>-26.9</v>
+      </c>
+      <c r="L2">
+        <v>-0.5028037383177569</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,70 +636,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>12.1</v>
+        <v>7.31</v>
       </c>
       <c r="V2">
-        <v>0.01755404033077035</v>
+        <v>0.01366099794430947</v>
       </c>
       <c r="W2">
-        <v>-0.07261208576998052</v>
+        <v>-0.3034965217951401</v>
       </c>
       <c r="X2">
-        <v>0.1032990792388053</v>
+        <v>0.08710790937711436</v>
       </c>
       <c r="Y2">
-        <v>-0.1759111650087858</v>
+        <v>-0.3906044311722545</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.05514838523466411</v>
       </c>
       <c r="AA2">
-        <v>-0.09784255222422561</v>
+        <v>-0.4344697217813974</v>
       </c>
       <c r="AB2">
-        <v>0.1018621968152423</v>
+        <v>0.05644584798216726</v>
       </c>
       <c r="AC2">
-        <v>-0.1997047490394679</v>
+        <v>-0.4909155697635647</v>
       </c>
       <c r="AD2">
-        <v>1.31</v>
+        <v>745.1410000000001</v>
       </c>
       <c r="AE2">
-        <v>1.35223437169526</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.66223437169526</v>
+        <v>745.1410000000001</v>
       </c>
       <c r="AG2">
-        <v>-9.437765628304739</v>
+        <v>737.8310000000001</v>
       </c>
       <c r="AH2">
-        <v>0.003847369465347455</v>
+        <v>0.5820318205712831</v>
       </c>
       <c r="AI2">
-        <v>0.02923532889417831</v>
+        <v>0.7220071683198632</v>
       </c>
       <c r="AJ2">
-        <v>-0.01388187952082202</v>
+        <v>0.5796315746886517</v>
       </c>
       <c r="AK2">
-        <v>-0.1195225249564087</v>
+        <v>0.7200240843694589</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.066</v>
       </c>
       <c r="AM2">
-        <v>-0.502</v>
+        <v>-0.532</v>
       </c>
       <c r="AN2">
-        <v>-0.3825934579439252</v>
+        <v>16.29435818937241</v>
+      </c>
+      <c r="AO2">
+        <v>-348.4848484848484</v>
       </c>
       <c r="AP2">
-        <v>2.756356783967505</v>
+        <v>16.13450688825716</v>
       </c>
       <c r="AQ2">
-        <v>29.8804780876494</v>
+        <v>43.23308270676691</v>
       </c>
     </row>
     <row r="3">
@@ -697,8 +721,29 @@
           <t>Oil/Gas (Production and Exploration)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.0263</v>
+      </c>
+      <c r="E3">
+        <v>0.233</v>
+      </c>
+      <c r="G3">
+        <v>1.037383177570093</v>
+      </c>
+      <c r="H3">
+        <v>1.037383177570093</v>
+      </c>
+      <c r="I3">
+        <v>0.902803738317757</v>
+      </c>
+      <c r="J3">
+        <v>0.8300517042904805</v>
+      </c>
       <c r="K3">
-        <v>0</v>
+        <v>44.1</v>
+      </c>
+      <c r="L3">
+        <v>0.8242990654205608</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -706,65 +751,86 @@
       <c r="N3">
         <v>-0</v>
       </c>
+      <c r="O3">
+        <v>-0</v>
+      </c>
       <c r="P3">
         <v>-0</v>
       </c>
       <c r="Q3">
         <v>-0</v>
       </c>
+      <c r="R3">
+        <v>-0</v>
+      </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.002982026143790849</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.1961743772241993</v>
       </c>
       <c r="X3">
-        <v>0.09672606770543633</v>
+        <v>0.1200562530948556</v>
       </c>
       <c r="Y3">
-        <v>-0.09672606770543633</v>
+        <v>0.07611812412934366</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.05994397759103642</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.04975660076139015</v>
       </c>
       <c r="AB3">
-        <v>0.09672606770543633</v>
+        <v>0.05922206315062516</v>
       </c>
       <c r="AC3">
-        <v>-0.09672606770543633</v>
+        <v>-0.009465462389235013</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>744.2</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>744.2</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>742.74</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.6031771762035986</v>
+      </c>
+      <c r="AI3">
+        <v>0.7345770407659659</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>0.6027070451336481</v>
+      </c>
+      <c r="AK3">
+        <v>0.7341939820489503</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-0.149</v>
+      </c>
+      <c r="AN3">
+        <v>14.79522862823062</v>
+      </c>
+      <c r="AP3">
+        <v>14.7662027833002</v>
+      </c>
+      <c r="AQ3">
+        <v>-324.1610738255034</v>
       </c>
     </row>
     <row r="4">
@@ -784,7 +850,7 @@
         </is>
       </c>
       <c r="K4">
-        <v>-14.9</v>
+        <v>-71</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -808,70 +874,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>12.1</v>
+        <v>5.85</v>
       </c>
       <c r="V4">
-        <v>0.7707006369426752</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="W4">
-        <v>-0.145224171539961</v>
+        <v>-0.8031674208144796</v>
       </c>
       <c r="X4">
-        <v>0.1098720907721743</v>
+        <v>0.0541595656593731</v>
       </c>
       <c r="Y4">
-        <v>-0.2550962623121354</v>
+        <v>-0.8573269864738526</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>-0.1956851044484512</v>
+        <v>-0.9186960443241848</v>
       </c>
       <c r="AB4">
-        <v>0.1069983259250482</v>
+        <v>0.05366963281370936</v>
       </c>
       <c r="AC4">
-        <v>-0.3026834303734994</v>
+        <v>-0.9723656771378942</v>
       </c>
       <c r="AD4">
-        <v>1.31</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="AE4">
-        <v>1.35223437169526</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>2.66223437169526</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="AG4">
-        <v>-9.437765628304739</v>
+        <v>-4.909</v>
       </c>
       <c r="AH4">
-        <v>0.1449842278344405</v>
+        <v>0.02026226825434422</v>
       </c>
       <c r="AI4">
-        <v>0.02923532889417831</v>
+        <v>0.04968058708621509</v>
       </c>
       <c r="AJ4">
-        <v>-1.507092368015256</v>
+        <v>-0.1209381389963292</v>
       </c>
       <c r="AK4">
-        <v>-0.1195225249564087</v>
+        <v>-0.3749904514551982</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.066</v>
       </c>
       <c r="AM4">
-        <v>-0.502</v>
+        <v>-0.383</v>
       </c>
       <c r="AN4">
-        <v>-0.3825934579439252</v>
+        <v>-0.2059080962800875</v>
+      </c>
+      <c r="AO4">
+        <v>-1080.30303030303</v>
       </c>
       <c r="AP4">
-        <v>2.756356783967505</v>
+        <v>1.07417943107221</v>
       </c>
       <c r="AQ4">
-        <v>29.8804780876494</v>
+        <v>186.1618798955614</v>
       </c>
     </row>
   </sheetData>
